--- a/regionseng/9/agriculture/3. Number of livestock.xlsx
+++ b/regionseng/9/agriculture/3. Number of livestock.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\კახეთი\ENG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\კახეთი\ENG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA504FA3-E2AB-48A3-BF6B-7E79DDCF2C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
@@ -226,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -241,11 +240,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -340,23 +340,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -392,23 +375,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,28 +565,30 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -670,8 +638,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -723,8 +697,14 @@
       <c r="Q3" s="5">
         <v>85</v>
       </c>
+      <c r="R3" s="5">
+        <v>70.2</v>
+      </c>
+      <c r="S3" s="5">
+        <v>77.099999999999994</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -776,8 +756,14 @@
       <c r="Q4" s="5">
         <v>38.6</v>
       </c>
+      <c r="R4" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="S4" s="5">
+        <v>34.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,8 +815,14 @@
       <c r="Q5" s="5">
         <v>31.4</v>
       </c>
+      <c r="R5" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>27.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,8 +874,14 @@
       <c r="Q6" s="5">
         <v>4.9000000000000004</v>
       </c>
+      <c r="R6" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="S6" s="5">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -935,8 +933,14 @@
       <c r="Q7" s="5">
         <v>527.4</v>
       </c>
+      <c r="R7" s="5">
+        <v>472</v>
+      </c>
+      <c r="S7" s="5">
+        <v>332.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -988,8 +992,14 @@
       <c r="Q8" s="5">
         <v>380.2</v>
       </c>
+      <c r="R8" s="5">
+        <v>332.5</v>
+      </c>
+      <c r="S8" s="8">
+        <v>247.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1041,8 +1051,14 @@
       <c r="Q9" s="5">
         <v>21.5</v>
       </c>
+      <c r="R9" s="5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="S9" s="5">
+        <v>20.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1094,8 +1110,14 @@
       <c r="Q10" s="5">
         <v>15.6</v>
       </c>
+      <c r="R10" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="S10" s="8">
+        <v>13.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1147,8 +1169,14 @@
       <c r="Q11" s="5">
         <v>1310.4000000000001</v>
       </c>
+      <c r="R11" s="5">
+        <v>1283.9000000000001</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1279.7</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1200,8 +1228,14 @@
       <c r="Q12" s="5">
         <v>40.9</v>
       </c>
+      <c r="R12" s="5">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="S12" s="5">
+        <v>33.9</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1224,8 +1258,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
